--- a/music_info.xlsx
+++ b/music_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eunjin/github/WeatherApp_iOS/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A6A3F2-4151-B74A-94AA-E836E366A5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDC6F25-EC3B-ED4F-8B67-25EB9B616F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31220" yWindow="3680" windowWidth="35460" windowHeight="15940" xr2:uid="{7E9501A6-B97A-B84E-95A0-978DF33FBD0A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{7E9501A6-B97A-B84E-95A0-978DF33FBD0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
   <si>
     <t>월급은 통장을 스칠 뿐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,13 +260,82 @@
   </si>
   <si>
     <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/007/24/619/724619_20210603102557_500.jpg</t>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm/album/images/007/61/859/761859_500.jpg</t>
+  </si>
+  <si>
+    <t>Mazeltov</t>
+  </si>
+  <si>
+    <t>제국의아이들 (ZE:A)</t>
+  </si>
+  <si>
+    <t>Nativity</t>
+  </si>
+  <si>
+    <t>2010.01.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한상원</t>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm/artistcrop/images/004/49/941/449941_500.jpg</t>
+  </si>
+  <si>
+    <t>DUMB DUMB</t>
+  </si>
+  <si>
+    <t>전소미</t>
+  </si>
+  <si>
+    <t>댄스</t>
+  </si>
+  <si>
+    <t>2021.08.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEDDY</t>
+  </si>
+  <si>
+    <t>R.Tee</t>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm2/album/images/106/67/450/10667450_20210802111127_500.jpg</t>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/009/68/260/968260_20211029153106_500.jpg</t>
+  </si>
+  <si>
+    <t>롤린 (Rollin')</t>
+  </si>
+  <si>
+    <t>브레이브걸스</t>
+  </si>
+  <si>
+    <t>2017.03.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rollin'</t>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm2/album/images/100/43/575/10043575_20210302112520_500.jpg</t>
+  </si>
+  <si>
+    <t>용감한 형제</t>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/005/31/700/531700_20210902182220_500.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -300,6 +369,18 @@
       <name val="Courier New"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -323,7 +404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -357,7 +438,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -674,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0D340A-F097-2049-94E1-069D363D812B}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -887,7 +974,7 @@
       <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -899,10 +986,10 @@
       <c r="H6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K6" s="10" t="s">
@@ -922,7 +1009,7 @@
       <c r="C7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -937,10 +1024,10 @@
       <c r="I7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L7" s="10" t="s">
@@ -951,10 +1038,13 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
       <c r="C8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="7" t="s">
         <v>54</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -966,10 +1056,10 @@
       <c r="H8" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K8" s="10" t="s">
@@ -977,10 +1067,116 @@
       </c>
       <c r="L8" s="10" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="19">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="19">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="19">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/music_info.xlsx
+++ b/music_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eunjin/github/WeatherApp_iOS/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDC6F25-EC3B-ED4F-8B67-25EB9B616F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E222E61-3541-7043-ABF3-BC1337AC20F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{7E9501A6-B97A-B84E-95A0-978DF33FBD0A}"/>
+    <workbookView xWindow="32240" yWindow="3180" windowWidth="28800" windowHeight="16080" xr2:uid="{7E9501A6-B97A-B84E-95A0-978DF33FBD0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="117">
   <si>
     <t>월급은 통장을 스칠 뿐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -329,13 +329,127 @@
   </si>
   <si>
     <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/005/31/700/531700_20210902182220_500.jpg</t>
+  </si>
+  <si>
+    <t>Jimmy Fallon, Ariana Grande, Megan Thee Stallion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It Was A… (Masked Christmas)</t>
+  </si>
+  <si>
+    <t>It Was A… (Masked Christmas)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.12.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POP</t>
+  </si>
+  <si>
+    <t>Gregory Hein</t>
+  </si>
+  <si>
+    <t>Jimmy Fallon</t>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm2/album/images/108/05/181/10805181_20211207142004_500.jpg</t>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/005/97/451/597451_20201027115530_500.jpg</t>
+  </si>
+  <si>
+    <t>가을 우체국 앞에서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김대명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내드라마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.06.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬기로운 의사생활 시즌2 OST Part 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김현성</t>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm2/album/images/106/36/269/10636269_20210625102856_500.jpg</t>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/020/86/543/2086543_20200525175210_500.jpg</t>
+  </si>
+  <si>
+    <t>마젤란</t>
+  </si>
+  <si>
+    <t>마젤란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모브닝 (MOVNING)</t>
+  </si>
+  <si>
+    <t>록/메탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.02.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강하림</t>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm2/album/images/105/59/735/10559735_20210204160854_500.jpg</t>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/011/82/867/1182867_20210204163736_500.jpg</t>
+  </si>
+  <si>
+    <t>Beautiful Beautiful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀치 (Punch), GLABINGO (글라빙고)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최고의 한방 OST Part.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.06.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지훈</t>
+  </si>
+  <si>
+    <t>GLABINGO (글라빙고)</t>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm/album/images/100/68/028/10068028_500.jpg</t>
+  </si>
+  <si>
+    <t>https://cdnimg.melon.co.kr/cm2/artistcrop/images/007/49/640/749640_20210504153420_500.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -381,6 +495,32 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFF29766"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Apple SD Gothic Neo"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -399,12 +539,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -444,12 +587,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -761,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0D340A-F097-2049-94E1-069D363D812B}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -772,7 +928,7 @@
     <col min="1" max="1" width="10.7109375" style="1"/>
     <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" style="4" customWidth="1"/>
     <col min="5" max="6" width="10.7109375" style="4"/>
     <col min="7" max="7" width="29.140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" style="4" customWidth="1"/>
@@ -1146,25 +1302,25 @@
       <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="7" t="s">
         <v>78</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="7" t="s">
         <v>80</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="7" t="s">
         <v>82</v>
       </c>
       <c r="K11" s="11" t="s">
@@ -1172,10 +1328,150 @@
       </c>
       <c r="L11" s="11" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="19">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="19">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="19">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="19">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J15" r:id="rId1" tooltip="아티스트상세 이동" display="javascript:melon.link.goArtistDetail(1271966)" xr:uid="{50D83A79-8EEA-8C49-B818-1E6A0D1F718D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/music_info.xlsx
+++ b/music_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eunjin/github/WeatherApp_iOS/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E222E61-3541-7043-ABF3-BC1337AC20F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3CBC25-8C0F-1C45-BAD4-F52D076C15B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32240" yWindow="3180" windowWidth="28800" windowHeight="16080" xr2:uid="{7E9501A6-B97A-B84E-95A0-978DF33FBD0A}"/>
+    <workbookView xWindow="780" yWindow="2300" windowWidth="28800" windowHeight="16080" xr2:uid="{7E9501A6-B97A-B84E-95A0-978DF33FBD0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -920,7 +920,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/music_info.xlsx
+++ b/music_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eunjin/github/WeatherApp_iOS/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3CBC25-8C0F-1C45-BAD4-F52D076C15B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305052F1-32C5-F544-B527-62361D573F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="2300" windowWidth="28800" windowHeight="16080" xr2:uid="{7E9501A6-B97A-B84E-95A0-978DF33FBD0A}"/>
+    <workbookView xWindow="0" yWindow="1920" windowWidth="28800" windowHeight="16080" xr2:uid="{7E9501A6-B97A-B84E-95A0-978DF33FBD0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -919,9 +919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0D340A-F097-2049-94E1-069D363D812B}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>

--- a/music_info.xlsx
+++ b/music_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eunjin/github/WeatherApp_iOS/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305052F1-32C5-F544-B527-62361D573F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E3DAD5-4617-7441-86E5-1C6FFEAB2235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1920" windowWidth="28800" windowHeight="16080" xr2:uid="{7E9501A6-B97A-B84E-95A0-978DF33FBD0A}"/>
+    <workbookView xWindow="32460" yWindow="2620" windowWidth="28800" windowHeight="16080" xr2:uid="{7E9501A6-B97A-B84E-95A0-978DF33FBD0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -919,7 +919,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0D340A-F097-2049-94E1-069D363D812B}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
@@ -979,9 +981,6 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1017,9 +1016,6 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1053,7 +1049,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>20</v>
@@ -1087,9 +1083,6 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
       <c r="C5" s="4" t="s">
         <v>28</v>
       </c>
@@ -1227,9 +1220,6 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
       <c r="C9" s="11" t="s">
         <v>63</v>
       </c>
@@ -1332,6 +1322,9 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
       <c r="C12" s="4" t="s">
         <v>86</v>
       </c>
@@ -1364,6 +1357,9 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
       <c r="C13" s="4" t="s">
         <v>93</v>
       </c>
@@ -1399,6 +1395,9 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
       <c r="C14" s="4" t="s">
         <v>102</v>
       </c>
@@ -1433,6 +1432,9 @@
     <row r="15" spans="1:12" ht="19">
       <c r="A15" s="1">
         <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>109</v>
